--- a/server/employee_data_export.xlsx
+++ b/server/employee_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="31">
   <si>
     <t>firstName</t>
   </si>
@@ -143,8 +143,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -157,7 +169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -433,6 +445,476 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n" s="7">
+        <v>45257.0</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H10" t="n" s="0">
+        <v>1001.0</v>
+      </c>
+      <c r="I10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F11" s="0"/>
+      <c r="G11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H11" s="0"/>
+      <c r="I11" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n" s="8">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I12" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n" s="9">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I13" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n" s="10">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I14" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n" s="11">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I15" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F16" t="n" s="12">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I16" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F17" t="n" s="13">
+        <v>45257.0</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>1001.0</v>
+      </c>
+      <c r="I17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H18" s="0"/>
+      <c r="I18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F19" t="n" s="14">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I19" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F20" t="n" s="15">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I20" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F21" t="n" s="16">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I21" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F22" t="n" s="17">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I22" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>767.0</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F23" t="n" s="18">
+        <v>45257.229166666664</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>3688.0</v>
+      </c>
+      <c r="I23" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/server/employee_data_export.xlsx
+++ b/server/employee_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
   <si>
     <t>firstName</t>
   </si>
@@ -47,64 +47,133 @@
     <t>status</t>
   </si>
   <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Parande</t>
+  </si>
+  <si>
+    <t>[Tech, Admin, CEO]</t>
+  </si>
+  <si>
+    <t>[Employee, Admin, HR]</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>sarthak.parande@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>ACTIVE</t>
+  </si>
+  <si>
+    <t>Ayuj</t>
+  </si>
+  <si>
+    <t>Panchal</t>
+  </si>
+  <si>
+    <t>[Employee, Admin, CEO, CTO]</t>
+  </si>
+  <si>
+    <t>panchal.kumar@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>Sumit</t>
+  </si>
+  <si>
+    <t>Bashetwar</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[Developer, Database Designer, Admin]</t>
+  </si>
+  <si>
+    <t>sumit.bashetwar@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>BAshetwar</t>
+  </si>
+  <si>
+    <t>[Codelyzer Backend]</t>
+  </si>
+  <si>
+    <t>[Admin, developer]</t>
+  </si>
+  <si>
+    <t>sumit@gmail.com</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Sahil</t>
+  </si>
+  <si>
+    <t>Agarwal</t>
+  </si>
+  <si>
+    <t>[Grad'23]</t>
+  </si>
+  <si>
+    <t>[Backend Developer]</t>
+  </si>
+  <si>
+    <t>sahil@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>Preety</t>
+  </si>
+  <si>
+    <t>Rani Priya</t>
+  </si>
+  <si>
+    <t>[Frontend Developer]</t>
+  </si>
+  <si>
+    <t>preety@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>ayuj@accolitedigital.com</t>
+  </si>
+  <si>
+    <t>sarthak@accolitedigital.com</t>
+  </si>
+  <si>
     <t>Ganesh</t>
   </si>
   <si>
     <t>Raigond</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>[Admin]</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>ganesh.raigond@accolitedigital.com</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>b7</t>
-  </si>
-  <si>
     <t>ganesh@accolitedigital.com</t>
   </si>
   <si>
-    <t>Sahil</t>
-  </si>
-  <si>
-    <t>Agrawal</t>
-  </si>
-  <si>
-    <t>sahil@accolitedigital.com</t>
-  </si>
-  <si>
-    <t>Panchal</t>
-  </si>
-  <si>
-    <t>ayuj@accolitedigital.com</t>
-  </si>
-  <si>
-    <t>Preety</t>
-  </si>
-  <si>
-    <t>Priya</t>
-  </si>
-  <si>
-    <t>preety@accolitedigital.com</t>
-  </si>
-  <si>
-    <t>Sarthak</t>
-  </si>
-  <si>
-    <t>Parande</t>
-  </si>
-  <si>
-    <t>sarthak@accolitedigital.com</t>
+    <t>Partha</t>
+  </si>
+  <si>
+    <t>Baytha</t>
+  </si>
+  <si>
+    <t>[Program Management]</t>
+  </si>
+  <si>
+    <t>[Program Manager]</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>partha@accolitedigital.com</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -143,10 +212,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -169,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -221,7 +288,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>100.0</v>
+        <v>1.0</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>14</v>
@@ -233,10 +300,10 @@
         <v>15</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>1001.0</v>
+        <v>3456.0</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>16</v>
@@ -246,25 +313,35 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0"/>
-      <c r="B4" s="0"/>
+      <c r="A4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
       <c r="C4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="D4" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0"/>
+        <v>20</v>
+      </c>
+      <c r="F4" t="n" s="2">
+        <v>45257.229166666664</v>
+      </c>
       <c r="G4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H4" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>3456.0</v>
+      </c>
       <c r="I4" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>17</v>
@@ -272,34 +349,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>767.0</v>
+        <v>1010.0</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F5" t="n" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" t="n" s="3">
         <v>45257.229166666664</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>3688.0</v>
+        <v>70283.0</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>17</v>
@@ -307,142 +384,142 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>767.0</v>
+        <v>1002.0</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F6" t="n" s="3">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n" s="4">
         <v>45257.229166666664</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>3688.0</v>
+        <v>725.0</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J6" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K6" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F7" t="n" s="4">
-        <v>45257.229166666664</v>
+        <v>35</v>
+      </c>
+      <c r="F7" t="n" s="5">
+        <v>45257.0</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F8" t="n" s="5">
-        <v>45257.229166666664</v>
+        <v>39</v>
+      </c>
+      <c r="F8" t="n" s="6">
+        <v>45257.0</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F9" t="n" s="6">
-        <v>45257.229166666664</v>
+        <v>35</v>
+      </c>
+      <c r="F9" t="n" s="7">
+        <v>45257.0</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -453,466 +530,340 @@
         <v>12</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>100.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F10" t="n" s="7">
+        <v>39</v>
+      </c>
+      <c r="F10" t="n" s="8">
         <v>45257.0</v>
       </c>
       <c r="G10" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>1001.0</v>
+        <v>3688.0</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
+      <c r="A11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>45</v>
+      </c>
       <c r="C11" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>34</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>1020.0</v>
+      </c>
       <c r="E11" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F11" s="0"/>
+        <v>39</v>
+      </c>
+      <c r="F11" t="n" s="9">
+        <v>45257.0</v>
+      </c>
       <c r="G11" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H11" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="H11" t="n" s="0">
+        <v>3688.0</v>
+      </c>
       <c r="I11" t="n" s="0">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n" s="0">
-        <v>767.0</v>
+        <v>1010.0</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F12" t="n" s="8">
-        <v>45257.229166666664</v>
+        <v>50</v>
+      </c>
+      <c r="F12" t="n" s="10">
+        <v>42874.0</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>3688.0</v>
+        <v>3612.0</v>
       </c>
       <c r="I12" t="n" s="0">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="J12" t="s" s="0">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F13" t="n" s="9">
-        <v>45257.229166666664</v>
+        <v>35</v>
+      </c>
+      <c r="F13" t="n" s="11">
+        <v>45257.0</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="J13" t="s" s="0">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F14" t="n" s="10">
-        <v>45257.229166666664</v>
+        <v>39</v>
+      </c>
+      <c r="F14" t="n" s="12">
+        <v>45257.0</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>5.0</v>
+        <v>13.0</v>
       </c>
       <c r="J14" t="s" s="0">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F15" t="n" s="11">
-        <v>45257.229166666664</v>
+        <v>35</v>
+      </c>
+      <c r="F15" t="n" s="13">
+        <v>45257.0</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>6.0</v>
+        <v>14.0</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>767.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F16" t="n" s="12">
-        <v>45257.229166666664</v>
+        <v>39</v>
+      </c>
+      <c r="F16" t="n" s="14">
+        <v>45257.0</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n" s="0">
         <v>3688.0</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>100.0</v>
+        <v>1020.0</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="F17" t="n" s="13">
+        <v>39</v>
+      </c>
+      <c r="F17" t="n" s="15">
         <v>45257.0</v>
       </c>
       <c r="G17" t="s" s="0">
         <v>15</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>1001.0</v>
+        <v>3688.0</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>1.0</v>
+        <v>16.0</v>
       </c>
       <c r="J17" t="s" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0"/>
-      <c r="B18" s="0"/>
+      <c r="A18" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>48</v>
+      </c>
       <c r="C18" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D18" s="0"/>
+        <v>49</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>1010.0</v>
+      </c>
       <c r="E18" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F18" s="0"/>
+        <v>50</v>
+      </c>
+      <c r="F18" t="n" s="16">
+        <v>42874.0</v>
+      </c>
       <c r="G18" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H18" s="0"/>
+        <v>51</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>3612.0</v>
+      </c>
       <c r="I18" t="n" s="0">
-        <v>2.0</v>
+        <v>17.0</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D19" t="n" s="0">
-        <v>767.0</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D19" s="0"/>
       <c r="E19" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F19" t="n" s="14">
-        <v>45257.229166666664</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F19" s="0"/>
       <c r="G19" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H19" t="n" s="0">
-        <v>3688.0</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H19" s="0"/>
       <c r="I19" t="n" s="0">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D20" t="n" s="0">
-        <v>767.0</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F20" t="n" s="15">
-        <v>45257.229166666664</v>
-      </c>
-      <c r="G20" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H20" t="n" s="0">
-        <v>3688.0</v>
-      </c>
-      <c r="I20" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D21" t="n" s="0">
-        <v>767.0</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F21" t="n" s="16">
-        <v>45257.229166666664</v>
-      </c>
-      <c r="G21" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H21" t="n" s="0">
-        <v>3688.0</v>
-      </c>
-      <c r="I21" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="J21" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D22" t="n" s="0">
-        <v>767.0</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F22" t="n" s="17">
-        <v>45257.229166666664</v>
-      </c>
-      <c r="G22" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H22" t="n" s="0">
-        <v>3688.0</v>
-      </c>
-      <c r="I22" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="J22" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s" s="0">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="D23" t="n" s="0">
-        <v>767.0</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="F23" t="n" s="18">
-        <v>45257.229166666664</v>
-      </c>
-      <c r="G23" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="H23" t="n" s="0">
-        <v>3688.0</v>
-      </c>
-      <c r="I23" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="J23" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="K23" t="s" s="0">
-        <v>17</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/server/employee_data_export.xlsx
+++ b/server/employee_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
   <si>
     <t>firstName</t>
   </si>
@@ -236,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,7 +300,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>3456.0</v>
+        <v>3.0</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>2.0</v>
@@ -370,7 +370,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>70283.0</v>
+        <v>3.0</v>
       </c>
       <c r="I5" t="n" s="0">
         <v>4.0</v>
@@ -440,7 +440,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>3688.0</v>
+        <v>3.0</v>
       </c>
       <c r="I7" t="n" s="0">
         <v>6.0</v>
@@ -475,7 +475,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>3688.0</v>
+        <v>3.0</v>
       </c>
       <c r="I8" t="n" s="0">
         <v>7.0</v>
@@ -863,6 +863,35 @@
         <v>53</v>
       </c>
       <c r="K19" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H20" s="0"/>
+      <c r="I20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>53</v>
       </c>
     </row>

--- a/server/employee_data_export.xlsx
+++ b/server/employee_data_export.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>firstName</t>
   </si>
@@ -236,7 +236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -405,7 +405,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>725.0</v>
+        <v>2.0</v>
       </c>
       <c r="I6" t="n" s="0">
         <v>5.0</v>
@@ -510,7 +510,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>3688.0</v>
+        <v>2.0</v>
       </c>
       <c r="I9" t="n" s="0">
         <v>8.0</v>
@@ -545,7 +545,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>3688.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n" s="0">
         <v>9.0</v>
@@ -580,7 +580,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>3688.0</v>
+        <v>5.0</v>
       </c>
       <c r="I11" t="n" s="0">
         <v>10.0</v>
@@ -615,7 +615,7 @@
         <v>51</v>
       </c>
       <c r="H12" t="n" s="0">
-        <v>3612.0</v>
+        <v>8.0</v>
       </c>
       <c r="I12" t="n" s="0">
         <v>11.0</v>
@@ -650,7 +650,7 @@
         <v>15</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>3688.0</v>
+        <v>8.0</v>
       </c>
       <c r="I13" t="n" s="0">
         <v>12.0</v>
@@ -894,6 +894,54 @@
       <c r="K20" t="s" s="0">
         <v>53</v>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="G21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="H21" s="0"/>
+      <c r="I21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
